--- a/학습자료/단답형/불교.xlsx
+++ b/학습자료/단답형/불교.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="126">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,113 +38,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일심사상</t>
-  </si>
-  <si>
     <t>원효</t>
   </si>
   <si>
-    <t>아미타신앙</t>
-  </si>
-  <si>
-    <t>관음신앙</t>
-  </si>
-  <si>
     <t>의상</t>
   </si>
   <si>
-    <t>화엄사상</t>
-  </si>
-  <si>
-    <t>무애가</t>
-  </si>
-  <si>
-    <t>법성종 창설 ; 분황사(경주)</t>
-  </si>
-  <si>
-    <t>6두품 출신, 이두를 정리, 신문왕에게 화왕계 바침.</t>
-  </si>
-  <si>
     <t>설총</t>
   </si>
   <si>
-    <t>화엄종 창설 ; 부석사 (영주)</t>
-  </si>
-  <si>
-    <t>지엄의 제자</t>
-  </si>
-  <si>
-    <t>하나가 곧 만물이고,만물이 곧 하나다(일즉다 다즉일)</t>
-  </si>
-  <si>
-    <t>왕오천축국전</t>
-  </si>
-  <si>
     <t>혜초</t>
   </si>
   <si>
-    <t>화엄일승법계도</t>
-  </si>
-  <si>
-    <t>6두품, 무열왕, 문무왕 때 주로 활약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진골, 문무왕, 신문왕 때 주로 활약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속명: 설서당, 별명: 해동보살</t>
-  </si>
-  <si>
-    <t>요석궁 공주와 결혼</t>
-  </si>
-  <si>
-    <t>평상복 입고 소송거사라 자처</t>
-  </si>
-  <si>
-    <t>화쟁사상</t>
-  </si>
-  <si>
-    <t>왕오천축국전 : 인도와 중앙아시아 여러 나라의 풍물 생생하게 기록</t>
-  </si>
-  <si>
-    <t>원융사상 : 모든 만물은 상호의존 관계, 서로 조화를 이루고 있다</t>
-  </si>
-  <si>
-    <t>대승기신론소</t>
-  </si>
-  <si>
-    <t>십문화쟁론</t>
-  </si>
-  <si>
-    <t>금강삼매경론</t>
-  </si>
-  <si>
-    <t>백화도량발원문</t>
-  </si>
-  <si>
-    <t>당으로 유학가 현장의 제자가 됨</t>
-  </si>
-  <si>
     <t>원측</t>
   </si>
   <si>
-    <t>유식 불교를 배워 서명학파 성립</t>
-  </si>
-  <si>
-    <t>해심밀경소 저술 -&gt; 법상종 성립에 기여</t>
-  </si>
-  <si>
-    <t>신라 경덕왕의 아들로 중국에서 화엄경을 전파</t>
-  </si>
-  <si>
     <t>김교각</t>
   </si>
   <si>
-    <t>지장보살의 화신으로 평가</t>
-  </si>
-  <si>
     <t>법성종</t>
   </si>
   <si>
@@ -214,23 +125,153 @@
     <t>현욱</t>
   </si>
   <si>
+    <t>5교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원효</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금산사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통도사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경복사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부석사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분황사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원효 분황사</t>
+  </si>
+  <si>
+    <t>5교</t>
+  </si>
+  <si>
+    <t>의상 부석사</t>
+  </si>
+  <si>
+    <t>보덕 경복사</t>
+  </si>
+  <si>
+    <t>자장 통도사</t>
+  </si>
+  <si>
+    <t>진표 금산사</t>
+  </si>
+  <si>
+    <t>전진의 순도가 불교 전래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동진의 마라난타가 불교 전래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구려(소수림왕)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백제(침류왕)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신라(눌지 마립간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신라(법흥왕)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구려 묵호자가 불교 전래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이차돈의 순교로 불교 공인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼론종 번창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가별 성격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인의 소승적 해탈 중시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계율종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백제, 신라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>신라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원효</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의상</t>
+    <t>업설과 미륵불 신앙 발달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕즉불 사상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국통, 주통, 군통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(백제) 일본에 천문, 역법 전파</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -238,50 +279,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>도현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(고구려) 연개소문의 불교 탄압을 피해 백제로 내려가 열반종 개창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(고구려) 연개소문의 도교 장려, 불교 탄압에 반발, &lt;일본세기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(고구려) 신라에 가서 최초의 국통이 되었으며, 불교 교단을 조직함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(고구려) 영양왕 21년(610) 백제를 거쳐 일본에 건너가 종이, 먹, 맷돌 제조 방법을 전해주었으며, 호류사에 머물면서 금당 벽화를 그림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(고구려) 일본 쇼토쿠 태자의 스승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(백제) 인도에서 불법 연구, 백제로 율종 관계 서적 들여와 번역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(백제) 삼론종 연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겸익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(백제) 일본에 계율종 전파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관륵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(백제) 성왕(552) 때 일본에 불상, 불경을 전파(일본에 불교 전파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(백제) 고구려에서 망명, 열반종 개창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노리사치계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(신라) 일심사상</t>
+  </si>
+  <si>
+    <t>(신라) 아미타신앙</t>
+  </si>
+  <si>
+    <t>(신라) 관음신앙</t>
+  </si>
+  <si>
+    <t>(신라) 화엄사상</t>
+  </si>
+  <si>
+    <t>(신라) 무애가</t>
+  </si>
+  <si>
+    <t>(신라) 법성종 창설 ; 분황사(경주)</t>
+  </si>
+  <si>
+    <t>(신라) 화엄종 창설 ; 부석사 (영주)</t>
+  </si>
+  <si>
+    <t>(신라) 지엄의 제자</t>
+  </si>
+  <si>
+    <t>(신라) 하나가 곧 만물이고,만물이 곧 하나다(일즉다 다즉일)</t>
+  </si>
+  <si>
+    <t>(신라) 화엄일승법계도</t>
+  </si>
+  <si>
+    <t>(신라) 6두품, 무열왕, 문무왕 때 주로 활약</t>
+  </si>
+  <si>
+    <t>(신라) 진골, 문무왕, 신문왕 때 주로 활약</t>
+  </si>
+  <si>
+    <t>(신라) 속명: 설서당, 별명: 해동보살</t>
+  </si>
+  <si>
+    <t>(신라) 요석궁 공주와 결혼</t>
+  </si>
+  <si>
+    <t>(신라) 평상복 입고 소송거사라 자처</t>
+  </si>
+  <si>
+    <t>(신라) 화쟁사상</t>
+  </si>
+  <si>
+    <t>(신라) 원융사상 : 모든 만물은 상호의존 관계, 서로 조화를 이루고 있다</t>
+  </si>
+  <si>
+    <t>(신라) 대승기신론소</t>
+  </si>
+  <si>
+    <t>(신라) 십문화쟁론</t>
+  </si>
+  <si>
+    <t>(신라) 금강삼매경론</t>
+  </si>
+  <si>
+    <t>(신라) 백화도량발원문</t>
+  </si>
+  <si>
+    <t>(통일신라) 6두품 출신, 이두를 정리, 신문왕에게 화왕계 바침.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(통일신라) 왕오천축국전 : 인도와 중앙아시아 여러 나라의 풍물 생생하게 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(통일신라) 유식 불교를 배워 서명학파 성립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(통일신라) 당으로 유학가 현장의 제자가 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(통일신라) 해심밀경소 저술 -&gt; 법상종 성립에 기여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(통일신라) 신라 경덕왕의 아들로 중국에서 화엄경을 전파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(통일신라) 지장보살의 화신으로 평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(신라) 당 유학, 통도사에서 계율종 개창, 선덕 여왕에게 황룡사 9층 목탑 건의, 대국통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(신라) 고구려에서 망명한 후 교단(국통, 주통, 군통)을 조직하고, 초대 국통에 임명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(신라) 진/수 유학, 성실종 도입, 화랑도의 세속 5계 제시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>자장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금산사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통도사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경복사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부석사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분황사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원효 분황사</t>
-  </si>
-  <si>
-    <t>5교</t>
-  </si>
-  <si>
-    <t>의상 부석사</t>
-  </si>
-  <si>
-    <t>보덕 경복사</t>
-  </si>
-  <si>
-    <t>자장 통도사</t>
-  </si>
-  <si>
-    <t>진표 금산사</t>
+    <t>혜량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -611,10 +801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A54" sqref="A50:XFD54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -635,585 +826,838 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>79</v>
       </c>
-      <c r="B54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
         <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
